--- a/output/Ownership_rate_by_generation_married.xlsx
+++ b/output/Ownership_rate_by_generation_married.xlsx
@@ -365,62 +365,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Boomers_Married</t>
+          <t>Boomers - Married</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Boomers_Never Married</t>
+          <t>Boomers - Never Married</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gen-X_Married</t>
+          <t>Gen-X - Married</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Gen-X_Never Married</t>
+          <t>Gen-X - Never Married</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gen-Z_Married</t>
+          <t>Gen-Z - Married</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gen-Z_Never Married</t>
+          <t>Gen-Z - Never Married</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Greatest_Married</t>
+          <t>Greatest - Married</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Greatest_Never Married</t>
+          <t>Greatest - Never Married</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Millennials_Married</t>
+          <t>Millennials - Married</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Millennials_Never Married</t>
+          <t>Millennials - Never Married</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Silent_Married</t>
+          <t>Silent - Married</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Silent_Never Married</t>
+          <t>Silent - Never Married</t>
         </is>
       </c>
     </row>
@@ -441,10 +441,10 @@
         <v>0.8</v>
       </c>
       <c r="F2">
-        <v>24.5</v>
+        <v>25.2</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J2">
         <v>19.8</v>
@@ -470,7 +470,7 @@
         <v>1.3</v>
       </c>
       <c r="F3">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="G3">
         <v>3.3</v>
@@ -499,10 +499,10 @@
         <v>1.7</v>
       </c>
       <c r="F4">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>25.1</v>
@@ -528,10 +528,10 @@
         <v>2.7</v>
       </c>
       <c r="F5">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J5">
         <v>28.3</v>
@@ -557,10 +557,10 @@
         <v>3.7</v>
       </c>
       <c r="F6">
-        <v>32.4</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J6">
         <v>31.2</v>
@@ -586,7 +586,7 @@
         <v>5.3</v>
       </c>
       <c r="F7">
-        <v>39.1</v>
+        <v>38.2</v>
       </c>
       <c r="G7">
         <v>8.1</v>
@@ -615,10 +615,10 @@
         <v>6.7</v>
       </c>
       <c r="F8">
-        <v>41.6</v>
+        <v>39.8</v>
       </c>
       <c r="G8">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J8">
         <v>41.5</v>
@@ -644,10 +644,10 @@
         <v>8.5</v>
       </c>
       <c r="F9">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="J9">
         <v>45.5</v>
@@ -673,10 +673,10 @@
         <v>11.2</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="G10">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="J10">
         <v>49.3</v>
@@ -701,6 +701,12 @@
       <c r="E11">
         <v>13</v>
       </c>
+      <c r="F11">
+        <v>54.2</v>
+      </c>
+      <c r="G11">
+        <v>13.3</v>
+      </c>
       <c r="J11">
         <v>52.6</v>
       </c>
@@ -725,10 +731,10 @@
         <v>15.1</v>
       </c>
       <c r="J12">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="K12">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="13">
@@ -748,10 +754,10 @@
         <v>16.6</v>
       </c>
       <c r="J13">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="K13">
-        <v>14.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -774,7 +780,7 @@
         <v>60.2</v>
       </c>
       <c r="K14">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="L14">
         <v>73.59999999999999</v>
@@ -800,10 +806,10 @@
         <v>19.8</v>
       </c>
       <c r="J15">
-        <v>62.5</v>
+        <v>62.6</v>
       </c>
       <c r="K15">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <v>75.5</v>
@@ -829,10 +835,10 @@
         <v>20.8</v>
       </c>
       <c r="J16">
-        <v>64.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="K16">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="L16">
         <v>77.2</v>
@@ -861,7 +867,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="L17">
         <v>79</v>
@@ -887,10 +893,10 @@
         <v>21.9</v>
       </c>
       <c r="J18">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="K18">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="L18">
         <v>81.09999999999999</v>
@@ -916,10 +922,10 @@
         <v>23.4</v>
       </c>
       <c r="J19">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="K19">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="L19">
         <v>81.40000000000001</v>
@@ -945,10 +951,10 @@
         <v>25</v>
       </c>
       <c r="J20">
-        <v>71.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K20">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="L20">
         <v>82.7</v>
@@ -977,7 +983,7 @@
         <v>73.2</v>
       </c>
       <c r="K21">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="L21">
         <v>83</v>
@@ -1003,10 +1009,10 @@
         <v>24.8</v>
       </c>
       <c r="J22">
-        <v>73.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K22">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="L22">
         <v>84</v>
@@ -1032,10 +1038,10 @@
         <v>24.9</v>
       </c>
       <c r="J23">
-        <v>74.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K23">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="L23">
         <v>84.09999999999999</v>
@@ -1061,10 +1067,10 @@
         <v>26.8</v>
       </c>
       <c r="J24">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K24">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="L24">
         <v>84.3</v>
@@ -1093,7 +1099,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="K25">
-        <v>27.8</v>
+        <v>26.5</v>
       </c>
       <c r="L25">
         <v>84.09999999999999</v>
@@ -1119,10 +1125,10 @@
         <v>26.5</v>
       </c>
       <c r="J26">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>33.6</v>
+        <v>29.8</v>
       </c>
       <c r="L26">
         <v>84.90000000000001</v>
@@ -1147,6 +1153,12 @@
       <c r="E27">
         <v>27.8</v>
       </c>
+      <c r="J27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="K27">
+        <v>28</v>
+      </c>
       <c r="L27">
         <v>85.90000000000001</v>
       </c>
@@ -1165,10 +1177,10 @@
         <v>33.1</v>
       </c>
       <c r="D28">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="E28">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="L28">
         <v>86</v>
@@ -1211,10 +1223,10 @@
         <v>34.9</v>
       </c>
       <c r="D30">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="E30">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="L30">
         <v>86.59999999999999</v>
@@ -1257,10 +1269,10 @@
         <v>36.2</v>
       </c>
       <c r="D32">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E32">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>87.40000000000001</v>
@@ -1289,7 +1301,7 @@
         <v>79.90000000000001</v>
       </c>
       <c r="E33">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="H33">
         <v>85.8</v>
@@ -1315,10 +1327,10 @@
         <v>36.5</v>
       </c>
       <c r="D34">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E34">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="H34">
         <v>87.5</v>
@@ -1344,10 +1356,10 @@
         <v>36.4</v>
       </c>
       <c r="D35">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="H35">
         <v>87.8</v>
@@ -1373,10 +1385,10 @@
         <v>37.7</v>
       </c>
       <c r="D36">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E36">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="H36">
         <v>87.5</v>
@@ -1402,10 +1414,10 @@
         <v>37.3</v>
       </c>
       <c r="D37">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E37">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="H37">
         <v>88.2</v>
@@ -1431,10 +1443,10 @@
         <v>37.8</v>
       </c>
       <c r="D38">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="E38">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="H38">
         <v>88.59999999999999</v>
@@ -1463,7 +1475,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="E39">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="H39">
         <v>88.8</v>
@@ -1489,10 +1501,10 @@
         <v>41.4</v>
       </c>
       <c r="D40">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="E40">
-        <v>39.8</v>
+        <v>37.3</v>
       </c>
       <c r="H40">
         <v>88</v>
@@ -1521,7 +1533,7 @@
         <v>83.8</v>
       </c>
       <c r="E41">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>88.5</v>
@@ -1547,10 +1559,10 @@
         <v>42</v>
       </c>
       <c r="D42">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="E42">
-        <v>38.9</v>
+        <v>34.9</v>
       </c>
       <c r="H42">
         <v>88.09999999999999</v>
@@ -1575,6 +1587,12 @@
       <c r="C43">
         <v>42.3</v>
       </c>
+      <c r="D43">
+        <v>83.3</v>
+      </c>
+      <c r="E43">
+        <v>40.8</v>
+      </c>
       <c r="H43">
         <v>88.59999999999999</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>87.2</v>
       </c>
       <c r="C45">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>88.09999999999999</v>
@@ -1642,7 +1660,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="C46">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="H46">
         <v>88.40000000000001</v>
@@ -1665,7 +1683,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="C47">
-        <v>45.5</v>
+        <v>44.4</v>
       </c>
       <c r="H47">
         <v>88.2</v>
@@ -1688,7 +1706,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="C48">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="H48">
         <v>88.5</v>
@@ -1708,10 +1726,10 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C49">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="H49">
         <v>88.7</v>
@@ -1734,7 +1752,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="H50">
         <v>88.3</v>
@@ -1754,10 +1772,10 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="C51">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="H51">
         <v>88.2</v>
@@ -1780,7 +1798,7 @@
         <v>89.2</v>
       </c>
       <c r="C52">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="H52">
         <v>88.3</v>
@@ -1800,10 +1818,10 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <v>89.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C53">
-        <v>45.5</v>
+        <v>44.8</v>
       </c>
       <c r="H53">
         <v>88.3</v>
@@ -1826,7 +1844,7 @@
         <v>89.7</v>
       </c>
       <c r="C54">
-        <v>46.5</v>
+        <v>45.3</v>
       </c>
       <c r="H54">
         <v>88.7</v>
@@ -1846,10 +1864,10 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <v>89.59999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C55">
-        <v>43.7</v>
+        <v>44.1</v>
       </c>
       <c r="H55">
         <v>88.2</v>
@@ -1869,10 +1887,10 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="C56">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="H56">
         <v>87.59999999999999</v>
@@ -1892,10 +1910,10 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C57">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="H57">
         <v>87.3</v>
@@ -1915,10 +1933,10 @@
         <v>75</v>
       </c>
       <c r="B58">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C58">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="H58">
         <v>87.5</v>
@@ -1938,7 +1956,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>89.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C59">
         <v>55.8</v>
@@ -1961,10 +1979,10 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <v>88.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="C60">
-        <v>52</v>
+        <v>52.9</v>
       </c>
       <c r="H60">
         <v>87.09999999999999</v>
@@ -1984,10 +2002,10 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <v>86.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C61">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="H61">
         <v>86.7</v>
@@ -2006,6 +2024,12 @@
       <c r="A62">
         <v>79</v>
       </c>
+      <c r="B62">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C62">
+        <v>43.6</v>
+      </c>
       <c r="H62">
         <v>86.7</v>
       </c>
@@ -2033,7 +2057,7 @@
         <v>87</v>
       </c>
       <c r="M63">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="64">
@@ -2091,10 +2115,10 @@
         <v>41.5</v>
       </c>
       <c r="L68">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="M68">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="69">
